--- a/FD_エンベロープ.xlsx
+++ b/FD_エンベロープ.xlsx
@@ -186,14 +186,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -204,8 +204,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5476875" y="3619501"/>
-          <a:ext cx="685800" cy="180974"/>
+          <a:off x="5591175" y="3619500"/>
+          <a:ext cx="561975" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -241,7 +241,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -333,13 +333,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -382,13 +382,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -431,13 +431,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1328,24 +1328,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ56"/>
+  <dimension ref="A1:AH56"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI32" sqref="AI32"/>
+      <selection activeCell="AG52" sqref="AG52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="41" width="2.5" customWidth="1"/>
-    <col min="42" max="46" width="2.375" customWidth="1"/>
+    <col min="1" max="39" width="2.5" customWidth="1"/>
+    <col min="40" max="44" width="2.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="1"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1371,19 +1371,17 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="5"/>
-    </row>
-    <row r="2" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="5"/>
+    </row>
+    <row r="2" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1409,19 +1407,17 @@
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="6"/>
-    </row>
-    <row r="3" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH2" s="6"/>
+    </row>
+    <row r="3" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1447,19 +1443,17 @@
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="6"/>
-    </row>
-    <row r="4" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH3" s="6"/>
+    </row>
+    <row r="4" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1485,19 +1479,17 @@
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="6"/>
-    </row>
-    <row r="5" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH4" s="6"/>
+    </row>
+    <row r="5" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1523,19 +1515,17 @@
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="6"/>
-    </row>
-    <row r="6" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH5" s="6"/>
+    </row>
+    <row r="6" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1561,19 +1551,17 @@
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="6"/>
-    </row>
-    <row r="7" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH6" s="6"/>
+    </row>
+    <row r="7" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1599,19 +1587,17 @@
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="6"/>
-    </row>
-    <row r="8" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH7" s="6"/>
+    </row>
+    <row r="8" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1637,19 +1623,17 @@
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="6"/>
-    </row>
-    <row r="9" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH8" s="6"/>
+    </row>
+    <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -1675,19 +1659,17 @@
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="6"/>
-    </row>
-    <row r="10" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH9" s="6"/>
+    </row>
+    <row r="10" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1713,19 +1695,17 @@
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="6"/>
-    </row>
-    <row r="11" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH10" s="6"/>
+    </row>
+    <row r="11" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -1751,19 +1731,17 @@
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="6"/>
-    </row>
-    <row r="12" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH11" s="6"/>
+    </row>
+    <row r="12" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -1789,19 +1767,17 @@
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="6"/>
-    </row>
-    <row r="13" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH12" s="6"/>
+    </row>
+    <row r="13" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1827,19 +1803,17 @@
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="6"/>
-    </row>
-    <row r="14" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH13" s="6"/>
+    </row>
+    <row r="14" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1865,19 +1839,17 @@
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="6"/>
-    </row>
-    <row r="15" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH14" s="6"/>
+    </row>
+    <row r="15" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1903,19 +1875,17 @@
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="6"/>
-    </row>
-    <row r="16" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH15" s="6"/>
+    </row>
+    <row r="16" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1941,19 +1911,17 @@
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="6"/>
-    </row>
-    <row r="17" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH16" s="6"/>
+    </row>
+    <row r="17" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1979,19 +1947,17 @@
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="6"/>
-    </row>
-    <row r="18" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH17" s="6"/>
+    </row>
+    <row r="18" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2017,19 +1983,17 @@
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="6"/>
-    </row>
-    <row r="19" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH18" s="6"/>
+    </row>
+    <row r="19" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -2055,19 +2019,17 @@
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="6"/>
-    </row>
-    <row r="20" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH19" s="6"/>
+    </row>
+    <row r="20" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -2093,19 +2055,17 @@
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="6"/>
-    </row>
-    <row r="21" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH20" s="6"/>
+    </row>
+    <row r="21" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -2131,19 +2091,17 @@
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-    </row>
-    <row r="22" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -2169,19 +2127,17 @@
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-    </row>
-    <row r="23" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -2207,19 +2163,17 @@
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-    </row>
-    <row r="24" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -2245,19 +2199,17 @@
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-    </row>
-    <row r="25" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -2283,19 +2235,17 @@
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="5"/>
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-    </row>
-    <row r="26" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -2321,19 +2271,17 @@
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="5"/>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-    </row>
-    <row r="27" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2359,15 +2307,14 @@
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-    </row>
-    <row r="28" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E28" s="4"/>
+    </row>
+    <row r="28" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -2393,11 +2340,11 @@
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="6"/>
-    </row>
-    <row r="29" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="4"/>
+      <c r="AE28" s="6"/>
+    </row>
+    <row r="29" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -2423,11 +2370,11 @@
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="6"/>
-    </row>
-    <row r="30" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E30" s="4"/>
+      <c r="AE29" s="6"/>
+    </row>
+    <row r="30" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -2453,11 +2400,11 @@
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="6"/>
-    </row>
-    <row r="31" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E31" s="4"/>
+      <c r="AE30" s="6"/>
+    </row>
+    <row r="31" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -2483,11 +2430,11 @@
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="6"/>
-    </row>
-    <row r="32" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E32" s="4"/>
+      <c r="AE31" s="6"/>
+    </row>
+    <row r="32" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -2513,11 +2460,11 @@
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
-      <c r="AE32" s="5"/>
-      <c r="AF32" s="6"/>
-    </row>
-    <row r="33" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E33" s="4"/>
+      <c r="AE32" s="6"/>
+    </row>
+    <row r="33" spans="4:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -2543,11 +2490,11 @@
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="6"/>
-    </row>
-    <row r="34" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E34" s="4"/>
+      <c r="AE33" s="6"/>
+    </row>
+    <row r="34" spans="4:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -2573,11 +2520,11 @@
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="6"/>
-    </row>
-    <row r="35" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E35" s="4"/>
+      <c r="AE34" s="6"/>
+    </row>
+    <row r="35" spans="4:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -2603,11 +2550,11 @@
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
-      <c r="AF35" s="6"/>
-    </row>
-    <row r="36" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E36" s="4"/>
+      <c r="AE35" s="6"/>
+    </row>
+    <row r="36" spans="4:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -2633,11 +2580,11 @@
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
-      <c r="AE36" s="5"/>
-      <c r="AF36" s="6"/>
-    </row>
-    <row r="37" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="4"/>
+      <c r="AE36" s="6"/>
+    </row>
+    <row r="37" spans="4:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -2663,11 +2610,11 @@
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
-      <c r="AE37" s="5"/>
-      <c r="AF37" s="6"/>
-    </row>
-    <row r="38" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="4"/>
+      <c r="AE37" s="6"/>
+    </row>
+    <row r="38" spans="4:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -2693,11 +2640,11 @@
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="6"/>
-    </row>
-    <row r="39" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="4"/>
+      <c r="AE38" s="6"/>
+    </row>
+    <row r="39" spans="4:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -2723,11 +2670,11 @@
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="6"/>
-    </row>
-    <row r="40" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E40" s="4"/>
+      <c r="AE39" s="6"/>
+    </row>
+    <row r="40" spans="4:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -2753,11 +2700,11 @@
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
-      <c r="AE40" s="5"/>
-      <c r="AF40" s="6"/>
-    </row>
-    <row r="41" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E41" s="4"/>
+      <c r="AE40" s="6"/>
+    </row>
+    <row r="41" spans="4:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -2783,11 +2730,11 @@
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="6"/>
-    </row>
-    <row r="42" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E42" s="4"/>
+      <c r="AE41" s="6"/>
+    </row>
+    <row r="42" spans="4:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -2813,11 +2760,11 @@
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
-      <c r="AE42" s="5"/>
-      <c r="AF42" s="6"/>
-    </row>
-    <row r="43" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E43" s="4"/>
+      <c r="AE42" s="6"/>
+    </row>
+    <row r="43" spans="4:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -2843,11 +2790,11 @@
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
-      <c r="AE43" s="5"/>
-      <c r="AF43" s="6"/>
-    </row>
-    <row r="44" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E44" s="4"/>
+      <c r="AE43" s="6"/>
+    </row>
+    <row r="44" spans="4:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -2873,11 +2820,11 @@
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
-      <c r="AE44" s="5"/>
-      <c r="AF44" s="6"/>
-    </row>
-    <row r="45" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E45" s="4"/>
+      <c r="AE44" s="6"/>
+    </row>
+    <row r="45" spans="4:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -2903,11 +2850,11 @@
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
-      <c r="AE45" s="5"/>
-      <c r="AF45" s="6"/>
-    </row>
-    <row r="46" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E46" s="4"/>
+      <c r="AE45" s="6"/>
+    </row>
+    <row r="46" spans="4:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D46" s="4"/>
+      <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -2933,11 +2880,11 @@
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
-      <c r="AE46" s="5"/>
-      <c r="AF46" s="6"/>
-    </row>
-    <row r="47" spans="5:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E47" s="5"/>
+      <c r="AE46" s="6"/>
+    </row>
+    <row r="47" spans="4:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D47" s="5"/>
+      <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -2963,30 +2910,29 @@
       <c r="AB47" s="8"/>
       <c r="AC47" s="8"/>
       <c r="AD47" s="8"/>
-      <c r="AE47" s="8"/>
-      <c r="AF47" s="5"/>
-    </row>
-    <row r="48" spans="5:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E48" s="5"/>
-      <c r="AF48" s="5"/>
-    </row>
-    <row r="49" spans="5:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E49" s="5"/>
-      <c r="AF49" s="5"/>
-    </row>
-    <row r="50" spans="5:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E50" s="5"/>
-      <c r="AF50" s="5"/>
-    </row>
-    <row r="51" spans="5:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" spans="5:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" spans="5:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" spans="5:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" spans="5:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="5:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="AE47" s="5"/>
+    </row>
+    <row r="48" spans="4:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D48" s="5"/>
+      <c r="AE48" s="5"/>
+    </row>
+    <row r="49" spans="4:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D49" s="5"/>
+      <c r="AE49" s="5"/>
+    </row>
+    <row r="50" spans="4:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D50" s="5"/>
+      <c r="AE50" s="5"/>
+    </row>
+    <row r="51" spans="4:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" spans="4:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" spans="4:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" spans="4:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="4:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="4:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0" right="0.23622047244094491" top="0" bottom="0.74803149606299213" header="0" footer="0.31496062992125984"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0"/>
   <drawing r:id="rId2"/>
